--- a/src/ClosedXMLReportDemo.Api/Templates/Books.xlsx
+++ b/src/ClosedXMLReportDemo.Api/Templates/Books.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\source\repos\DotNet\ClosedXML\ClosedXMLReportDemo\src\ClosedXMLReportDemo.Api\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F5E00E-8FFD-4D9B-A888-59F57BC5C237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C96F8D-EC4E-479E-B673-213A92BAEB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB1F4E32-3878-4CEC-BE24-52F3DE746A83}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB1F4E32-3878-4CEC-BE24-52F3DE746A83}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="BookList">Books!$A$2:$B$3</definedName>
+    <definedName name="BookList">Books!$A$2:$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>{{item.Id}}</t>
   </si>
@@ -51,12 +51,30 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Created Date</t>
+  </si>
+  <si>
+    <t>Updated Date</t>
+  </si>
+  <si>
+    <t>{{item.UpdatedAt}}</t>
+  </si>
+  <si>
+    <t>{{item.CreatedAt}}</t>
+  </si>
+  <si>
+    <t>Book Items List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\/mm\/dd/\ h:mm:s"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,35 +441,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F358076C-3D59-44C9-AC93-11325CE0E07E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>